--- a/DATA_goal/Junction_Flooding_426.xlsx
+++ b/DATA_goal/Junction_Flooding_426.xlsx
@@ -863,103 +863,103 @@
         <v>44781.72916666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.39</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.62</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.94</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.54</v>
+        <v>5.43</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.79</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.65</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.42</v>
+        <v>4.22</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.31</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.07</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.35</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.38</v>
+        <v>3.76</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.3</v>
+        <v>2.98</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.44</v>
+        <v>4.44</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.38</v>
+        <v>3.79</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.21</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.19</v>
+        <v>1.88</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>3.73</v>
+        <v>37.29</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.65</v>
+        <v>6.45</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.43</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.5</v>
+        <v>4.97</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.71</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.4</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.16</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.34</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.56</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.39</v>
+        <v>3.9</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.07</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.79</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44781.73611111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.26</v>
+        <v>2.63</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.2</v>
+        <v>1.98</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.57</v>
+        <v>5.73</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.44</v>
+        <v>4.37</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.65</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.32</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.73</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.73</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.25</v>
+        <v>2.52</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.7</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.65</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.25</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.53</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.25</v>
+        <v>2.51</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>2.66</v>
+        <v>26.6</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.61</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.89</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.05</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.26</v>
+        <v>2.6</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.94</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.64</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.74</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.2</v>
+        <v>1.97</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.8</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.75</v>
+        <v>7.49</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.24</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_426.xlsx
+++ b/DATA_goal/Junction_Flooding_426.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.71527777778</v>
+        <v>45107.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>16.334</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>10.878</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>3.753</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>34.787</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>27.078</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>12.827</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>39.214</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>19.779</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>8.095000000000001</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>12.091</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>13.724</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>14.293</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>4.102</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>12.783</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>17.703</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>11.145</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>3.152</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>2.018</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>187.2</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>35.47</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>11.799</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>23.043</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>11.665</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>3.17</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>20.069</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>10.422</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>9.335000000000001</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>11.223</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>14.442</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>3.314</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>35.145</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>6.324</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>14.751</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.72222222222</v>
+        <v>45107.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0</v>
+        <v>2.883</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0</v>
+        <v>1.486</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>1.324</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>6.124</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0</v>
+        <v>4.078</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>2.244</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>13.395</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0</v>
+        <v>3.49</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0</v>
+        <v>1.309</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0</v>
+        <v>1.614</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0</v>
+        <v>2.392</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0</v>
+        <v>2.379</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>0.742</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0</v>
+        <v>2.256</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0</v>
+        <v>3.068</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0</v>
+        <v>2.336</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>1.371</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.665</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>27.096</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0</v>
+        <v>6.695</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0</v>
+        <v>2.082</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0</v>
+        <v>4.08</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0</v>
+        <v>1.907</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0</v>
+        <v>0.993</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0</v>
+        <v>6.206</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0</v>
+        <v>1.839</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0</v>
+        <v>1.829</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0</v>
+        <v>2.201</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0</v>
+        <v>2.503</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>1.246</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0</v>
+        <v>12.972</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0</v>
+        <v>2.608</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.72916666666</v>
+        <v>45107.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.39</v>
+        <v>16.334</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.62</v>
+        <v>11.823</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.306</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>6.94</v>
+        <v>35.473</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>5.43</v>
+        <v>28.621</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.79</v>
+        <v>12.829</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.65</v>
+        <v>45.632</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>4.22</v>
+        <v>19.779</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.31</v>
+        <v>8.644</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.07</v>
+        <v>12.743</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.35</v>
+        <v>14.215</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.76</v>
+        <v>14.935</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.7</v>
+        <v>4.104</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.98</v>
+        <v>12.783</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>4.44</v>
+        <v>18.057</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.79</v>
+        <v>10.941</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>2.21</v>
+        <v>1.016</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>1.88</v>
+        <v>0.822</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>37.29</v>
+        <v>187.22</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>6.45</v>
+        <v>35.607</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.43</v>
+        <v>11.799</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>4.97</v>
+        <v>23.728</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.71</v>
+        <v>12.437</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.39</v>
+        <v>2.132</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.4</v>
+        <v>22.605</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.16</v>
+        <v>10.422</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.34</v>
+        <v>9.305999999999999</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.56</v>
+        <v>10.97</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.9</v>
+        <v>14.927</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>1.2</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>6.07</v>
+        <v>41.297</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.79</v>
+        <v>6.547</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.63</v>
+        <v>14.751</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.73611111111</v>
+        <v>45107.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.63</v>
+        <v>12.01</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.98</v>
+        <v>8.69</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.38</v>
+        <v>0.95</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>5.73</v>
+        <v>26.09</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4.37</v>
+        <v>21.02</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.65</v>
+        <v>9.43</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>8</v>
+        <v>37.82</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>3.32</v>
+        <v>14.54</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.73</v>
+        <v>6.38</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2.73</v>
+        <v>9.34</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.52</v>
+        <v>10.47</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.7</v>
+        <v>11</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.65</v>
+        <v>3.02</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2.25</v>
+        <v>9.4</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>3.53</v>
+        <v>13.31</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.51</v>
+        <v>8.07</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.96</v>
+        <v>0.59</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>26.6</v>
+        <v>135.74</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>5.61</v>
+        <v>26.34</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.89</v>
+        <v>8.68</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>4.05</v>
+        <v>17.54</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.6</v>
+        <v>9.16</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.3</v>
+        <v>1.57</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.94</v>
+        <v>18.23</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.64</v>
+        <v>7.66</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.74</v>
+        <v>6.86</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.97</v>
+        <v>8.07</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.8</v>
+        <v>10.99</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.72</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>7.49</v>
+        <v>34.58</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.24</v>
+        <v>4.81</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.23</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.74304398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>25.82</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>21.03</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>32.02</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>14.45</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.61</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>11.11</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>135.45</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>25.66</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>17.51</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>16.08</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.81</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>11.11</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>28.93</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>10.61</v>
+        <v>10.85</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_426.xlsx
+++ b/DATA_goal/Junction_Flooding_426.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
-    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45107.50694444445</v>
+        <v>44781.71527777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>16.334</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>10.878</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.753</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>34.787</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>27.078</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>12.827</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>39.214</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>19.779</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>8.095000000000001</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>12.091</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>13.724</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>14.293</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.102</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>12.783</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>17.703</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>11.145</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.152</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.018</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>187.2</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>35.47</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>11.799</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>23.043</v>
+        <v>0</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>11.665</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.17</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>20.069</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>10.422</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>9.335000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>11.223</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>14.442</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.314</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>35.145</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.324</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>14.751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45107.51388888889</v>
+        <v>44781.72222222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.883</v>
+        <v>0</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.486</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.324</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>6.124</v>
+        <v>0</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.078</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.244</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>13.395</v>
+        <v>0</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>3.49</v>
+        <v>0</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.309</v>
+        <v>0</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.614</v>
+        <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.392</v>
+        <v>0</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.379</v>
+        <v>0</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.742</v>
+        <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.256</v>
+        <v>0</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>3.068</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.336</v>
+        <v>0</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.371</v>
+        <v>0</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.665</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>27.096</v>
+        <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>6.695</v>
+        <v>0</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.082</v>
+        <v>0</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>4.08</v>
+        <v>0</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.907</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.993</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>6.206</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.839</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.829</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.201</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.503</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.246</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>12.972</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.9350000000000001</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45107.52083333334</v>
+        <v>44781.72916666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>16.334</v>
+        <v>3.386</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>11.823</v>
+        <v>2.615</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.306</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>35.473</v>
+        <v>6.935</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>28.621</v>
+        <v>5.434</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>12.829</v>
+        <v>1.793</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>45.632</v>
+        <v>6.646</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>19.779</v>
+        <v>4.223</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>8.644</v>
+        <v>2.31</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>12.743</v>
+        <v>4.068</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>14.215</v>
+        <v>3.352</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>14.935</v>
+        <v>3.757</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.104</v>
+        <v>0.699</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>12.783</v>
+        <v>2.976</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>18.057</v>
+        <v>4.442</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>10.941</v>
+        <v>3.787</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.016</v>
+        <v>2.207</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.822</v>
+        <v>1.884</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>187.22</v>
+        <v>37.294</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>35.607</v>
+        <v>6.451</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>11.799</v>
+        <v>2.432</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>23.728</v>
+        <v>4.97</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>12.437</v>
+        <v>3.71</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.132</v>
+        <v>0.39</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>22.605</v>
+        <v>3.401</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>10.422</v>
+        <v>2.159</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.305999999999999</v>
+        <v>2.335</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>10.97</v>
+        <v>2.563</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>14.927</v>
+        <v>3.898</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.766</v>
+        <v>1.196</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>41.297</v>
+        <v>6.07</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.547</v>
+        <v>1.793</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>14.751</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45107.52777777778</v>
+        <v>44781.73611111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.01</v>
+        <v>2.632</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.69</v>
+        <v>1.976</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.376</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>4.372</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>3.321</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>1.731</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>2.733</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>2.516</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>2.699</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.647</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>2.249</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>3.529</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>2.511</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.963</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>26.595</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>5.612</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>4.054</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>2.602</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>3.943</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>1.636</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>1.735</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>1.967</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>2.796</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>7.493</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>1.235</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>2.234</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.74304398148</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>25.82</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>21.03</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>32.02</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>14.45</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="S6" s="4" t="n">
         <v>0.95</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>26.09</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>21.02</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>9.43</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>37.82</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>14.54</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>13.31</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>135.74</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>26.34</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>8.68</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>17.54</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>9.16</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>18.23</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>34.58</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>10.85</v>
+      <c r="T6" s="4" t="n">
+        <v>135.45</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>17.51</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>16.08</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>28.93</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>10.61</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_426.xlsx
+++ b/DATA_goal/Junction_Flooding_426.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.71527777778</v>
+        <v>45107.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>16.334</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>10.878</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>3.753</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>34.787</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>27.078</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>12.827</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>39.214</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>19.779</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>8.095000000000001</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>12.091</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>13.724</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>14.293</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>4.102</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>12.783</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>17.703</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>11.145</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>3.152</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>2.018</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>187.2</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>35.47</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>11.799</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>23.043</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>11.665</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>3.17</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>20.069</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>10.422</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>9.335000000000001</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>11.223</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>14.442</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>3.314</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>35.145</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>6.324</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>14.751</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.72222222222</v>
+        <v>45107.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0</v>
+        <v>2.883</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0</v>
+        <v>1.486</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>1.324</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>6.124</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0</v>
+        <v>4.078</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>2.244</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>13.395</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0</v>
+        <v>3.49</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0</v>
+        <v>1.309</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0</v>
+        <v>1.614</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0</v>
+        <v>2.392</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0</v>
+        <v>2.379</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>0.742</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0</v>
+        <v>2.256</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0</v>
+        <v>3.068</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0</v>
+        <v>2.336</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>1.371</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.665</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>27.096</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0</v>
+        <v>6.695</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0</v>
+        <v>2.082</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0</v>
+        <v>4.08</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0</v>
+        <v>1.907</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0</v>
+        <v>0.993</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0</v>
+        <v>6.206</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0</v>
+        <v>1.839</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0</v>
+        <v>1.829</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0</v>
+        <v>2.201</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0</v>
+        <v>2.503</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>1.246</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0</v>
+        <v>12.972</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0</v>
+        <v>2.608</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.72916666666</v>
+        <v>45107.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.386</v>
+        <v>16.334</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.615</v>
+        <v>11.823</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.8129999999999999</v>
+        <v>1.306</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>6.935</v>
+        <v>35.473</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>5.434</v>
+        <v>28.621</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.793</v>
+        <v>12.829</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.646</v>
+        <v>45.632</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>4.223</v>
+        <v>19.779</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.31</v>
+        <v>8.644</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.068</v>
+        <v>12.743</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.352</v>
+        <v>14.215</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.757</v>
+        <v>14.935</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.699</v>
+        <v>4.104</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.976</v>
+        <v>12.783</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>4.442</v>
+        <v>18.057</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.787</v>
+        <v>10.941</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>2.207</v>
+        <v>1.016</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>1.884</v>
+        <v>0.822</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>37.294</v>
+        <v>187.22</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>6.451</v>
+        <v>35.607</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.432</v>
+        <v>11.799</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>4.97</v>
+        <v>23.728</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.71</v>
+        <v>12.437</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.39</v>
+        <v>2.132</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.401</v>
+        <v>22.605</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.159</v>
+        <v>10.422</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.335</v>
+        <v>9.305999999999999</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.563</v>
+        <v>10.97</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.898</v>
+        <v>14.927</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>1.196</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>6.07</v>
+        <v>41.297</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.793</v>
+        <v>6.547</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.63</v>
+        <v>14.751</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.73611111111</v>
+        <v>45107.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.632</v>
+        <v>12.01</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.976</v>
+        <v>8.69</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.376</v>
+        <v>0.95</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>5.73</v>
+        <v>26.09</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4.372</v>
+        <v>21.02</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.65</v>
+        <v>9.43</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>8</v>
+        <v>37.82</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>3.321</v>
+        <v>14.54</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.731</v>
+        <v>6.38</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2.733</v>
+        <v>9.34</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.516</v>
+        <v>10.47</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.699</v>
+        <v>11</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.647</v>
+        <v>3.02</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2.249</v>
+        <v>9.4</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>3.529</v>
+        <v>13.31</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.511</v>
+        <v>8.07</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.963</v>
+        <v>0.59</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>26.595</v>
+        <v>135.74</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>5.612</v>
+        <v>26.34</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.886</v>
+        <v>8.68</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>4.054</v>
+        <v>17.54</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.602</v>
+        <v>9.16</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.295</v>
+        <v>1.57</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.943</v>
+        <v>18.23</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.636</v>
+        <v>7.66</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.735</v>
+        <v>6.86</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.967</v>
+        <v>8.07</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.796</v>
+        <v>10.99</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.723</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>7.493</v>
+        <v>34.58</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.235</v>
+        <v>4.81</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.234</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.74304398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>25.82</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>21.03</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>32.02</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>14.45</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.61</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>11.11</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>135.45</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>25.66</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>17.51</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>16.08</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.81</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>11.11</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>28.93</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>10.61</v>
+        <v>10.85</v>
       </c>
     </row>
   </sheetData>
